--- a/Code/Results/Cases/Case_3_228/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_228/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.291824691988495</v>
+        <v>0.7552996098948483</v>
       </c>
       <c r="C2">
-        <v>0.5295838621545101</v>
+        <v>0.1820370491487324</v>
       </c>
       <c r="D2">
-        <v>0.05238478718212036</v>
+        <v>0.01756196431284707</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3819769660489669</v>
+        <v>0.4231571509815595</v>
       </c>
       <c r="G2">
-        <v>0.0007766901396454876</v>
+        <v>0.002377319570543173</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7574238476186395</v>
+        <v>0.8650531988527774</v>
       </c>
       <c r="O2">
-        <v>0.9709677185774979</v>
+        <v>1.328415420291208</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.995452240562258</v>
+        <v>0.6631323545134933</v>
       </c>
       <c r="C3">
-        <v>0.4680171481427919</v>
+        <v>0.1619520816475983</v>
       </c>
       <c r="D3">
-        <v>0.04608414370710534</v>
+        <v>0.01549712346731269</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3473935934353705</v>
+        <v>0.4190749727905683</v>
       </c>
       <c r="G3">
-        <v>0.0007803838415719154</v>
+        <v>0.002379797946689466</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7444025479303349</v>
+        <v>0.8628946535549318</v>
       </c>
       <c r="O3">
-        <v>0.9017362564268865</v>
+        <v>1.327618931213195</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.81352350779224</v>
+        <v>0.6064274189342598</v>
       </c>
       <c r="C4">
-        <v>0.4301442690708654</v>
+        <v>0.1495527871607578</v>
       </c>
       <c r="D4">
-        <v>0.04220747751737264</v>
+        <v>0.01422312325498609</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3270883194870393</v>
+        <v>0.4169469796433063</v>
       </c>
       <c r="G4">
-        <v>0.0007827275412159689</v>
+        <v>0.00238140151399494</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7372722595013173</v>
+        <v>0.8619459159141201</v>
       </c>
       <c r="O4">
-        <v>0.8621862979106254</v>
+        <v>1.328351698420221</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.739377081403859</v>
+        <v>0.5832925067643373</v>
       </c>
       <c r="C5">
-        <v>0.4146901367260796</v>
+        <v>0.1444834692672998</v>
       </c>
       <c r="D5">
-        <v>0.04062543807729213</v>
+        <v>0.01370243957688899</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3190315255434015</v>
+        <v>0.4161747867724515</v>
       </c>
       <c r="G5">
-        <v>0.0007837019916822618</v>
+        <v>0.002382075618741787</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7345761253342147</v>
+        <v>0.8616542804648049</v>
       </c>
       <c r="O5">
-        <v>0.846765568998606</v>
+        <v>1.328956808225868</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.727064010552169</v>
+        <v>0.5794493725064171</v>
       </c>
       <c r="C6">
-        <v>0.4121226647611991</v>
+        <v>0.1436407264767752</v>
       </c>
       <c r="D6">
-        <v>0.04036259796143327</v>
+        <v>0.01361588980120132</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3177064043940945</v>
+        <v>0.4160522958011583</v>
       </c>
       <c r="G6">
-        <v>0.0007838649778084391</v>
+        <v>0.002382188801733187</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7341408641306657</v>
+        <v>0.8616115996610034</v>
       </c>
       <c r="O6">
-        <v>0.8442456645171035</v>
+        <v>1.329075776631413</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.812523605529492</v>
+        <v>0.606115521598241</v>
       </c>
       <c r="C7">
-        <v>0.4299359363719759</v>
+        <v>0.1494844869232281</v>
       </c>
       <c r="D7">
-        <v>0.04218615106678669</v>
+        <v>0.01421610723265587</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3269788014137021</v>
+        <v>0.4169361812565455</v>
       </c>
       <c r="G7">
-        <v>0.0007827406042151819</v>
+        <v>0.002381410521617679</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7372350603682847</v>
+        <v>0.861941597861545</v>
       </c>
       <c r="O7">
-        <v>0.8619755711209223</v>
+        <v>1.328358619106851</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.189613371985217</v>
+        <v>0.7235448103303952</v>
       </c>
       <c r="C8">
-        <v>0.5083685203630353</v>
+        <v>0.1751258733410452</v>
       </c>
       <c r="D8">
-        <v>0.05021384158298758</v>
+        <v>0.01685131053780964</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3698500143867562</v>
+        <v>0.4216709452621927</v>
       </c>
       <c r="G8">
-        <v>0.0007779482064904965</v>
+        <v>0.002378157166259392</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7527496785533287</v>
+        <v>0.864230928531768</v>
       </c>
       <c r="O8">
-        <v>0.946453242975835</v>
+        <v>1.327886757369058</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.930461329685329</v>
+        <v>0.9528673909222789</v>
       </c>
       <c r="C9">
-        <v>0.6617614964458198</v>
+        <v>0.2248633388898327</v>
       </c>
       <c r="D9">
-        <v>0.06590487402659306</v>
+        <v>0.02196857195355761</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4620479268466866</v>
+        <v>0.4339686799090856</v>
       </c>
       <c r="G9">
-        <v>0.0007691358273403116</v>
+        <v>0.002372423911049929</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7904186190243081</v>
+        <v>0.8716977287117942</v>
       </c>
       <c r="O9">
-        <v>1.137861245546645</v>
+        <v>1.336691429115746</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.477168835598206</v>
+        <v>1.1207136817128</v>
       </c>
       <c r="C10">
-        <v>0.7744414268245521</v>
+        <v>0.2610586286503178</v>
       </c>
       <c r="D10">
-        <v>0.07742176114027188</v>
+        <v>0.02569607571051336</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5358558633085337</v>
+        <v>0.4448558645568639</v>
       </c>
       <c r="G10">
-        <v>0.0007629953261170978</v>
+        <v>0.002368601990391332</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8230786121595344</v>
+        <v>0.8789861633284062</v>
       </c>
       <c r="O10">
-        <v>1.297536849506997</v>
+        <v>1.349144282642101</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.726782688101935</v>
+        <v>1.1969224769569</v>
       </c>
       <c r="C11">
-        <v>0.8257563590229324</v>
+        <v>0.2774466401442055</v>
       </c>
       <c r="D11">
-        <v>0.08266349110343185</v>
+        <v>0.02738454739607477</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5710155297905928</v>
+        <v>0.4502142521289869</v>
       </c>
       <c r="G11">
-        <v>0.0007602689663964157</v>
+        <v>0.00236694722904917</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8391539516722588</v>
+        <v>0.8826908349920473</v>
       </c>
       <c r="O11">
-        <v>1.375109078620682</v>
+        <v>1.35612020646343</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.821469580645839</v>
+        <v>1.225758618318366</v>
       </c>
       <c r="C12">
-        <v>0.8452011298778928</v>
+        <v>0.2836409073495645</v>
       </c>
       <c r="D12">
-        <v>0.08464919110729596</v>
+        <v>0.02802286209782778</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5845809273731177</v>
+        <v>0.4523019132885864</v>
       </c>
       <c r="G12">
-        <v>0.0007592457263923375</v>
+        <v>0.002366332609254742</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8454284515376145</v>
+        <v>0.8841494255531757</v>
       </c>
       <c r="O12">
-        <v>1.405264415615534</v>
+        <v>1.3589511850615</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.801069251176898</v>
+        <v>1.219549264023499</v>
       </c>
       <c r="C13">
-        <v>0.8410126942830232</v>
+        <v>0.2823073794377251</v>
       </c>
       <c r="D13">
-        <v>0.08422149424023218</v>
+        <v>0.02788543794618192</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5816478141830501</v>
+        <v>0.4518496904961182</v>
       </c>
       <c r="G13">
-        <v>0.0007594656990896549</v>
+        <v>0.002366464445623971</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8440686047570409</v>
+        <v>0.8838328180111716</v>
       </c>
       <c r="O13">
-        <v>1.398734034800924</v>
+        <v>1.358333048892575</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.734569164823824</v>
+        <v>1.199295303130953</v>
       </c>
       <c r="C14">
-        <v>0.8273558038461886</v>
+        <v>0.2779564792629117</v>
       </c>
       <c r="D14">
-        <v>0.08282683803974322</v>
+        <v>0.0274370836570057</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5721263890268915</v>
+        <v>0.4503848305262679</v>
       </c>
       <c r="G14">
-        <v>0.0007601846027626793</v>
+        <v>0.002366896423482826</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8396663371325559</v>
+        <v>0.8828097189471009</v>
       </c>
       <c r="O14">
-        <v>1.377573912541862</v>
+        <v>1.356349313294373</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.69385823760382</v>
+        <v>1.186886193517751</v>
       </c>
       <c r="C15">
-        <v>0.8189923975404554</v>
+        <v>0.2752899159736444</v>
       </c>
       <c r="D15">
-        <v>0.08197268335411678</v>
+        <v>0.02716231282722248</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5663276765455336</v>
+        <v>0.4494951934053475</v>
       </c>
       <c r="G15">
-        <v>0.000760626132438047</v>
+        <v>0.002367162583919508</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8369945576549043</v>
+        <v>0.8821902893969451</v>
       </c>
       <c r="O15">
-        <v>1.364716544991779</v>
+        <v>1.355158900834937</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.460877061312488</v>
+        <v>1.115730198453718</v>
       </c>
       <c r="C16">
-        <v>0.771089410314886</v>
+        <v>0.2599860429013461</v>
       </c>
       <c r="D16">
-        <v>0.07707928758868832</v>
+        <v>0.0255855821133224</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5335919365034343</v>
+        <v>0.4445138640503217</v>
       </c>
       <c r="G16">
-        <v>0.0007631748094954567</v>
+        <v>0.00236871181572121</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8220535666050779</v>
+        <v>0.878751863551642</v>
       </c>
       <c r="O16">
-        <v>1.292572565073499</v>
+        <v>1.348714841591828</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.318206785065115</v>
+        <v>1.072039955369689</v>
       </c>
       <c r="C17">
-        <v>0.7417201888705449</v>
+        <v>0.2505775115824349</v>
       </c>
       <c r="D17">
-        <v>0.07407829229565266</v>
+        <v>0.02461643984910467</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5139314941592303</v>
+        <v>0.4415620524313084</v>
       </c>
       <c r="G17">
-        <v>0.0007647551793104082</v>
+        <v>0.00236968365568032</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.813208003549974</v>
+        <v>0.8767419898773028</v>
       </c>
       <c r="O17">
-        <v>1.249627370039718</v>
+        <v>1.345097997853259</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.236230561583341</v>
+        <v>1.046896898612658</v>
       </c>
       <c r="C18">
-        <v>0.7248327709661737</v>
+        <v>0.2451587102732731</v>
       </c>
       <c r="D18">
-        <v>0.0723524224325871</v>
+        <v>0.02405834057820755</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5027709341921565</v>
+        <v>0.4399024274370333</v>
       </c>
       <c r="G18">
-        <v>0.0007656705003470162</v>
+        <v>0.002370250528088678</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8082341656150902</v>
+        <v>0.875622604346276</v>
       </c>
       <c r="O18">
-        <v>1.225386416943422</v>
+        <v>1.343141039361655</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.20848830086635</v>
+        <v>1.038381606597966</v>
       </c>
       <c r="C19">
-        <v>0.7191156969922474</v>
+        <v>0.2433227616190834</v>
       </c>
       <c r="D19">
-        <v>0.07176809949619667</v>
+        <v>0.02386926314238735</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4990168245163602</v>
+        <v>0.4393470577946914</v>
       </c>
       <c r="G19">
-        <v>0.0007659815137641638</v>
+        <v>0.002370443818958012</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8065693200098707</v>
+        <v>0.875249900230699</v>
       </c>
       <c r="O19">
-        <v>1.217255772703538</v>
+        <v>1.342499608035951</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.333385366791504</v>
+        <v>1.076692273715821</v>
       </c>
       <c r="C20">
-        <v>0.7448460434856656</v>
+        <v>0.2515798202914254</v>
       </c>
       <c r="D20">
-        <v>0.07439772752988461</v>
+        <v>0.02471967676657982</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5160089406242747</v>
+        <v>0.4418723249135681</v>
       </c>
       <c r="G20">
-        <v>0.0007645862939558854</v>
+        <v>0.002369579384868148</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8141377569928636</v>
+        <v>0.876952153975779</v>
       </c>
       <c r="O20">
-        <v>1.25415085534911</v>
+        <v>1.345470244379214</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.754097144725108</v>
+        <v>1.205245004945596</v>
       </c>
       <c r="C21">
-        <v>0.8313667722789262</v>
+        <v>0.2792347597515743</v>
       </c>
       <c r="D21">
-        <v>0.0832364581831655</v>
+        <v>0.0275688056096044</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5749160504182598</v>
+        <v>0.4508135045549366</v>
       </c>
       <c r="G21">
-        <v>0.0007599731981327006</v>
+        <v>0.002366769215781558</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8409542123104359</v>
+        <v>0.8831087178591872</v>
       </c>
       <c r="O21">
-        <v>1.383767384373215</v>
+        <v>1.356926839183558</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.030026674537282</v>
+        <v>1.289129912064425</v>
       </c>
       <c r="C22">
-        <v>0.8879909439955895</v>
+        <v>0.2972415526616601</v>
       </c>
       <c r="D22">
-        <v>0.08901777623932361</v>
+        <v>0.02942460429162708</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6148914633609905</v>
+        <v>0.4569984876387139</v>
       </c>
       <c r="G22">
-        <v>0.000757011506925608</v>
+        <v>0.002365002543194679</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8595771107549837</v>
+        <v>0.887457009734959</v>
       </c>
       <c r="O22">
-        <v>1.473064640272185</v>
+        <v>1.365518425596008</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.88265783070517</v>
+        <v>1.244371532646312</v>
       </c>
       <c r="C23">
-        <v>0.8577607188828438</v>
+        <v>0.28763727439852</v>
       </c>
       <c r="D23">
-        <v>0.08593161061078547</v>
+        <v>0.02843471640542106</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5934125951797711</v>
+        <v>0.4536661385248024</v>
       </c>
       <c r="G23">
-        <v>0.0007585875060606433</v>
+        <v>0.002365939068643554</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8495332028428777</v>
+        <v>0.8851066209213201</v>
       </c>
       <c r="O23">
-        <v>1.424960753077784</v>
+        <v>1.360831645262436</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.326522986560576</v>
+        <v>1.0745890382006</v>
       </c>
       <c r="C24">
-        <v>0.7434328532626182</v>
+        <v>0.2511267067467315</v>
       </c>
       <c r="D24">
-        <v>0.07425331262673751</v>
+        <v>0.02467300623907676</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5150692850030936</v>
+        <v>0.4417319342087609</v>
       </c>
       <c r="G24">
-        <v>0.0007646626259412391</v>
+        <v>0.002369626500355316</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8137170687650297</v>
+        <v>0.8768570262634938</v>
       </c>
       <c r="O24">
-        <v>1.252104394985707</v>
+        <v>1.34530157047837</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.72974001596225</v>
+        <v>0.890937515730343</v>
       </c>
       <c r="C25">
-        <v>0.6202858801431717</v>
+        <v>0.2114679035070992</v>
       </c>
       <c r="D25">
-        <v>0.06166355102644872</v>
+        <v>0.02058975858360412</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4361248383439644</v>
+        <v>0.4303176785940153</v>
       </c>
       <c r="G25">
-        <v>0.0007714594244060605</v>
+        <v>0.002373906090043666</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7793961430961502</v>
+        <v>0.8693603252275324</v>
       </c>
       <c r="O25">
-        <v>1.082990478532906</v>
+        <v>1.333262437405864</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_228/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_228/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7552996098948483</v>
+        <v>2.291824691988495</v>
       </c>
       <c r="C2">
-        <v>0.1820370491487324</v>
+        <v>0.5295838621544249</v>
       </c>
       <c r="D2">
-        <v>0.01756196431284707</v>
+        <v>0.05238478718212747</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4231571509815595</v>
+        <v>0.3819769660489456</v>
       </c>
       <c r="G2">
-        <v>0.002377319570543173</v>
+        <v>0.0007766901396445994</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8650531988527774</v>
+        <v>0.7574238476186679</v>
       </c>
       <c r="O2">
-        <v>1.328415420291208</v>
+        <v>0.9709677185774979</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6631323545134933</v>
+        <v>1.995452240562173</v>
       </c>
       <c r="C3">
-        <v>0.1619520816475983</v>
+        <v>0.4680171481422519</v>
       </c>
       <c r="D3">
-        <v>0.01549712346731269</v>
+        <v>0.04608414370699165</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4190749727905683</v>
+        <v>0.3473935934353847</v>
       </c>
       <c r="G3">
-        <v>0.002379797946689466</v>
+        <v>0.0007803838415719516</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8628946535549318</v>
+        <v>0.7444025479303065</v>
       </c>
       <c r="O3">
-        <v>1.327618931213195</v>
+        <v>0.9017362564268865</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6064274189342598</v>
+        <v>1.813523507792127</v>
       </c>
       <c r="C4">
-        <v>0.1495527871607578</v>
+        <v>0.4301442690709507</v>
       </c>
       <c r="D4">
-        <v>0.01422312325498609</v>
+        <v>0.04220747751740106</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4169469796433063</v>
+        <v>0.3270883194870606</v>
       </c>
       <c r="G4">
-        <v>0.00238140151399494</v>
+        <v>0.0007827275412565165</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8619459159141201</v>
+        <v>0.7372722595012604</v>
       </c>
       <c r="O4">
-        <v>1.328351698420221</v>
+        <v>0.862186297910597</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5832925067643373</v>
+        <v>1.739377081403774</v>
       </c>
       <c r="C5">
-        <v>0.1444834692672998</v>
+        <v>0.4146901367259375</v>
       </c>
       <c r="D5">
-        <v>0.01370243957688899</v>
+        <v>0.04062543807740582</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4161747867724515</v>
+        <v>0.3190315255433873</v>
       </c>
       <c r="G5">
-        <v>0.002382075618741787</v>
+        <v>0.0007837019916654046</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8616542804648049</v>
+        <v>0.7345761253342857</v>
       </c>
       <c r="O5">
-        <v>1.328956808225868</v>
+        <v>0.846765568998606</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5794493725064171</v>
+        <v>1.727064010552084</v>
       </c>
       <c r="C6">
-        <v>0.1436407264767752</v>
+        <v>0.412122664761398</v>
       </c>
       <c r="D6">
-        <v>0.01361588980120132</v>
+        <v>0.04036259796127695</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4160522958011583</v>
+        <v>0.3177064043940803</v>
       </c>
       <c r="G6">
-        <v>0.002382188801733187</v>
+        <v>0.0007838649778832682</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8616115996610034</v>
+        <v>0.7341408641307297</v>
       </c>
       <c r="O6">
-        <v>1.329075776631413</v>
+        <v>0.8442456645170466</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.606115521598241</v>
+        <v>1.812523605529606</v>
       </c>
       <c r="C7">
-        <v>0.1494844869232281</v>
+        <v>0.429935936372317</v>
       </c>
       <c r="D7">
-        <v>0.01421610723265587</v>
+        <v>0.04218615106678669</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4169361812565455</v>
+        <v>0.3269788014137163</v>
       </c>
       <c r="G7">
-        <v>0.002381410521617679</v>
+        <v>0.0007827406041579247</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.861941597861545</v>
+        <v>0.7372350603682918</v>
       </c>
       <c r="O7">
-        <v>1.328358619106851</v>
+        <v>0.8619755711209649</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7235448103303952</v>
+        <v>2.189613371985331</v>
       </c>
       <c r="C8">
-        <v>0.1751258733410452</v>
+        <v>0.5083685203625805</v>
       </c>
       <c r="D8">
-        <v>0.01685131053780964</v>
+        <v>0.05021384158290942</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4216709452621927</v>
+        <v>0.3698500143867562</v>
       </c>
       <c r="G8">
-        <v>0.002378157166259392</v>
+        <v>0.0007779482064909486</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.864230928531768</v>
+        <v>0.7527496785533998</v>
       </c>
       <c r="O8">
-        <v>1.327886757369058</v>
+        <v>0.946453242975835</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9528673909222789</v>
+        <v>2.9304613296855</v>
       </c>
       <c r="C9">
-        <v>0.2248633388898327</v>
+        <v>0.6617614964459335</v>
       </c>
       <c r="D9">
-        <v>0.02196857195355761</v>
+        <v>0.06590487402660017</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4339686799090856</v>
+        <v>0.4620479268466937</v>
       </c>
       <c r="G9">
-        <v>0.002372423911049929</v>
+        <v>0.000769135827360822</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8716977287117942</v>
+        <v>0.7904186190243507</v>
       </c>
       <c r="O9">
-        <v>1.336691429115746</v>
+        <v>1.137861245546702</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.1207136817128</v>
+        <v>3.47716883559832</v>
       </c>
       <c r="C10">
-        <v>0.2610586286503178</v>
+        <v>0.7744414268245521</v>
       </c>
       <c r="D10">
-        <v>0.02569607571051336</v>
+        <v>0.07742176114028609</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4448558645568639</v>
+        <v>0.5358558633085408</v>
       </c>
       <c r="G10">
-        <v>0.002368601990391332</v>
+        <v>0.0007629953261170824</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8789861633284062</v>
+        <v>0.8230786121595344</v>
       </c>
       <c r="O10">
-        <v>1.349144282642101</v>
+        <v>1.297536849507054</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.1969224769569</v>
+        <v>3.726782688101878</v>
       </c>
       <c r="C11">
-        <v>0.2774466401442055</v>
+        <v>0.8257563590227335</v>
       </c>
       <c r="D11">
-        <v>0.02738454739607477</v>
+        <v>0.08266349110337501</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4502142521289869</v>
+        <v>0.5710155297905857</v>
       </c>
       <c r="G11">
-        <v>0.00236694722904917</v>
+        <v>0.0007602689664435346</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8826908349920473</v>
+        <v>0.8391539516722446</v>
       </c>
       <c r="O11">
-        <v>1.35612020646343</v>
+        <v>1.37510907862071</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.225758618318366</v>
+        <v>3.821469580645896</v>
       </c>
       <c r="C12">
-        <v>0.2836409073495645</v>
+        <v>0.8452011298779496</v>
       </c>
       <c r="D12">
-        <v>0.02802286209782778</v>
+        <v>0.08464919110746649</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4523019132885864</v>
+        <v>0.5845809273731177</v>
       </c>
       <c r="G12">
-        <v>0.002366332609254742</v>
+        <v>0.0007592457263911839</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8841494255531757</v>
+        <v>0.8454284515375434</v>
       </c>
       <c r="O12">
-        <v>1.3589511850615</v>
+        <v>1.405264415615534</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.219549264023499</v>
+        <v>3.801069251176784</v>
       </c>
       <c r="C13">
-        <v>0.2823073794377251</v>
+        <v>0.8410126942831084</v>
       </c>
       <c r="D13">
-        <v>0.02788543794618192</v>
+        <v>0.08422149424017533</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4518496904961182</v>
+        <v>0.5816478141830785</v>
       </c>
       <c r="G13">
-        <v>0.002366464445623971</v>
+        <v>0.0007594656990599293</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8838328180111716</v>
+        <v>0.8440686047569699</v>
       </c>
       <c r="O13">
-        <v>1.358333048892575</v>
+        <v>1.398734034801038</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.199295303130953</v>
+        <v>3.734569164823768</v>
       </c>
       <c r="C14">
-        <v>0.2779564792629117</v>
+        <v>0.8273558038462738</v>
       </c>
       <c r="D14">
-        <v>0.0274370836570057</v>
+        <v>0.08282683803980717</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4503848305262679</v>
+        <v>0.5721263890268915</v>
       </c>
       <c r="G14">
-        <v>0.002366896423482826</v>
+        <v>0.0007601846027391775</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8828097189471009</v>
+        <v>0.8396663371325559</v>
       </c>
       <c r="O14">
-        <v>1.356349313294373</v>
+        <v>1.377573912541891</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.186886193517751</v>
+        <v>3.693858237603934</v>
       </c>
       <c r="C15">
-        <v>0.2752899159736444</v>
+        <v>0.8189923975405407</v>
       </c>
       <c r="D15">
-        <v>0.02716231282722248</v>
+        <v>0.0819726833541381</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4494951934053475</v>
+        <v>0.5663276765455407</v>
       </c>
       <c r="G15">
-        <v>0.002367162583919508</v>
+        <v>0.000760626132466559</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8821902893969451</v>
+        <v>0.8369945576549185</v>
       </c>
       <c r="O15">
-        <v>1.355158900834937</v>
+        <v>1.364716544991808</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.115730198453718</v>
+        <v>3.460877061312431</v>
       </c>
       <c r="C16">
-        <v>0.2599860429013461</v>
+        <v>0.771089410314886</v>
       </c>
       <c r="D16">
-        <v>0.0255855821133224</v>
+        <v>0.07707928758875937</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4445138640503217</v>
+        <v>0.5335919365034485</v>
       </c>
       <c r="G16">
-        <v>0.00236871181572121</v>
+        <v>0.0007631748094436563</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.878751863551642</v>
+        <v>0.8220535666050779</v>
       </c>
       <c r="O16">
-        <v>1.348714841591828</v>
+        <v>1.292572565073499</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.072039955369689</v>
+        <v>3.318206785065115</v>
       </c>
       <c r="C17">
-        <v>0.2505775115824349</v>
+        <v>0.7417201888707154</v>
       </c>
       <c r="D17">
-        <v>0.02461643984910467</v>
+        <v>0.07407829229561003</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4415620524313084</v>
+        <v>0.5139314941592374</v>
       </c>
       <c r="G17">
-        <v>0.00236968365568032</v>
+        <v>0.0007647551793040944</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8767419898773028</v>
+        <v>0.8132080035499172</v>
       </c>
       <c r="O17">
-        <v>1.345097997853259</v>
+        <v>1.249627370039718</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.046896898612658</v>
+        <v>3.23623056158317</v>
       </c>
       <c r="C18">
-        <v>0.2451587102732731</v>
+        <v>0.7248327709664011</v>
       </c>
       <c r="D18">
-        <v>0.02405834057820755</v>
+        <v>0.07235242243240947</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4399024274370333</v>
+        <v>0.5027709341921565</v>
       </c>
       <c r="G18">
-        <v>0.002370250528088678</v>
+        <v>0.0007656705003456949</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.875622604346276</v>
+        <v>0.808234165615147</v>
       </c>
       <c r="O18">
-        <v>1.343141039361655</v>
+        <v>1.225386416943422</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.038381606597966</v>
+        <v>3.20848830086635</v>
       </c>
       <c r="C19">
-        <v>0.2433227616190834</v>
+        <v>0.7191156969923043</v>
       </c>
       <c r="D19">
-        <v>0.02386926314238735</v>
+        <v>0.07176809949603324</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4393470577946914</v>
+        <v>0.4990168245163602</v>
       </c>
       <c r="G19">
-        <v>0.002370443818958012</v>
+        <v>0.0007659815137647744</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.875249900230699</v>
+        <v>0.8065693200098707</v>
       </c>
       <c r="O19">
-        <v>1.342499608035951</v>
+        <v>1.217255772703538</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.076692273715821</v>
+        <v>3.33338536679139</v>
       </c>
       <c r="C20">
-        <v>0.2515798202914254</v>
+        <v>0.7448460434855519</v>
       </c>
       <c r="D20">
-        <v>0.02471967676657982</v>
+        <v>0.07439772752984197</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4418723249135681</v>
+        <v>0.516008940624296</v>
       </c>
       <c r="G20">
-        <v>0.002369579384868148</v>
+        <v>0.0007645862939050456</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.876952153975779</v>
+        <v>0.8141377569929062</v>
       </c>
       <c r="O20">
-        <v>1.345470244379214</v>
+        <v>1.25415085534911</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.205245004945596</v>
+        <v>3.754097144725222</v>
       </c>
       <c r="C21">
-        <v>0.2792347597515743</v>
+        <v>0.8313667722791251</v>
       </c>
       <c r="D21">
-        <v>0.0275688056096044</v>
+        <v>0.08323645818312286</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4508135045549366</v>
+        <v>0.5749160504182669</v>
       </c>
       <c r="G21">
-        <v>0.002366769215781558</v>
+        <v>0.000759973198188968</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8831087178591872</v>
+        <v>0.8409542123104359</v>
       </c>
       <c r="O21">
-        <v>1.356926839183558</v>
+        <v>1.383767384373215</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.289129912064425</v>
+        <v>4.030026674537282</v>
       </c>
       <c r="C22">
-        <v>0.2972415526616601</v>
+        <v>0.8879909439953053</v>
       </c>
       <c r="D22">
-        <v>0.02942460429162708</v>
+        <v>0.08901777623937335</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4569984876387139</v>
+        <v>0.6148914633609905</v>
       </c>
       <c r="G22">
-        <v>0.002365002543194679</v>
+        <v>0.0007570115069294725</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.887457009734959</v>
+        <v>0.8595771107549268</v>
       </c>
       <c r="O22">
-        <v>1.365518425596008</v>
+        <v>1.473064640272213</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.244371532646312</v>
+        <v>3.88265783070517</v>
       </c>
       <c r="C23">
-        <v>0.28763727439852</v>
+        <v>0.8577607188826164</v>
       </c>
       <c r="D23">
-        <v>0.02843471640542106</v>
+        <v>0.08593161061088495</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4536661385248024</v>
+        <v>0.593412595179764</v>
       </c>
       <c r="G23">
-        <v>0.002365939068643554</v>
+        <v>0.0007585875060884262</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8851066209213201</v>
+        <v>0.8495332028428635</v>
       </c>
       <c r="O23">
-        <v>1.360831645262436</v>
+        <v>1.424960753077727</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.0745890382006</v>
+        <v>3.326522986560462</v>
       </c>
       <c r="C24">
-        <v>0.2511267067467315</v>
+        <v>0.7434328532625898</v>
       </c>
       <c r="D24">
-        <v>0.02467300623907676</v>
+        <v>0.07425331262655988</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4417319342087609</v>
+        <v>0.5150692850030865</v>
       </c>
       <c r="G24">
-        <v>0.002369626500355316</v>
+        <v>0.0007646626259706479</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8768570262634938</v>
+        <v>0.8137170687649729</v>
       </c>
       <c r="O24">
-        <v>1.34530157047837</v>
+        <v>1.252104394985764</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.890937515730343</v>
+        <v>2.72974001596242</v>
       </c>
       <c r="C25">
-        <v>0.2114679035070992</v>
+        <v>0.6202858801432853</v>
       </c>
       <c r="D25">
-        <v>0.02058975858360412</v>
+        <v>0.06166355102652687</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4303176785940153</v>
+        <v>0.4361248383439502</v>
       </c>
       <c r="G25">
-        <v>0.002373906090043666</v>
+        <v>0.0007714594244273362</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8693603252275324</v>
+        <v>0.7793961430962071</v>
       </c>
       <c r="O25">
-        <v>1.333262437405864</v>
+        <v>1.082990478532935</v>
       </c>
     </row>
   </sheetData>
